--- a/data/trans_dic/P57_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,21; 33,69</t>
+          <t>26,58; 33,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>38,23; 46,87</t>
+          <t>38,02; 46,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,99; 29,7</t>
+          <t>23,23; 29,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,37; 43,71</t>
+          <t>36,97; 43,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,77; 30,87</t>
+          <t>25,61; 30,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,74; 44,17</t>
+          <t>38,9; 44,21</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,39; 32,29</t>
+          <t>26,4; 32,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,25; 78,68</t>
+          <t>48,09; 77,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,74; 29,17</t>
+          <t>23,8; 29,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>39,56; 45,11</t>
+          <t>39,38; 44,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,82; 29,9</t>
+          <t>26,12; 29,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,95; 68,78</t>
+          <t>45,2; 67,97</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,5; 33,21</t>
+          <t>26,85; 33,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,47; 59,31</t>
+          <t>50,21; 58,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,32; 28,52</t>
+          <t>22,51; 28,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,76; 48,17</t>
+          <t>19,33; 48,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,52; 30,26</t>
+          <t>25,48; 30,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,69; 51,67</t>
+          <t>26,16; 51,82</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,05; 35,22</t>
+          <t>29,21; 35,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,01; 45,13</t>
+          <t>37,77; 44,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,98; 29,56</t>
+          <t>23,99; 29,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,4; 37,68</t>
+          <t>27,69; 37,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,17; 31,3</t>
+          <t>27,46; 31,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,95; 39,73</t>
+          <t>33,08; 39,91</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28,83; 31,95</t>
+          <t>28,9; 32,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46,14; 62,01</t>
+          <t>46,31; 62,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,87; 28,01</t>
+          <t>24,88; 27,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30,93; 41,31</t>
+          <t>30,84; 41,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,24; 29,47</t>
+          <t>27,15; 29,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,27; 49,69</t>
+          <t>40,66; 50,15</t>
         </is>
       </c>
     </row>
@@ -1009,4 +1010,714 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con autopercepción de la felicidad mayor o igual a 9 (Likert 0 a 10)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>709</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>200433</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>266842</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>176124</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>270726</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>376558</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>537568</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>177957; 225874</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>238992; 294960</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>155019; 196699</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>247811; 290156</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>342326; 409813</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>505291; 574280</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>300008</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>713006</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>274699</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>402187</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>574707</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1115192</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>269587; 331173</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>573025; 929244</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>247931; 305019</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>373970; 427332</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>539006; 617742</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>967933; 1455433</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>822</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>227876</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>384706</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>198207</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>337565</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>426083</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>722272</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>203123; 255594</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>353839; 412136</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>175400; 225812</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>179655; 449351</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>391293; 460647</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>427563; 846887</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>297880</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>382590</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>279691</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>370905</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>577571</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>753495</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>272701; 328930</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>349310; 415559</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>249378; 306980</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>302012; 410303</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>541688; 620107</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>666760; 804386</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>970</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1420</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1867</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3436</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1026196</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1747144</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>928723</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1381383</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1954919</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3128528</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>977133; 1087918</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1597551; 2146360</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>877663; 981482</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1122807; 1496713</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1875864; 2028846</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2883072; 3555898</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>